--- a/Output/Tables/Table_3.xlsx
+++ b/Output/Tables/Table_3.xlsx
@@ -117,7 +117,7 @@
         <v>#N/A</v>
       </c>
       <c r="C2" t="n">
-        <v>747437.0169520816</v>
+        <v>915763.7357711862</v>
       </c>
     </row>
     <row r="3">
@@ -128,7 +128,7 @@
         <v>#N/A</v>
       </c>
       <c r="C3" t="n">
-        <v>140799.44976942134</v>
+        <v>171037.82777760012</v>
       </c>
     </row>
     <row r="4">
@@ -139,7 +139,7 @@
         <v>#N/A</v>
       </c>
       <c r="C4" t="n">
-        <v>70524.4283328685</v>
+        <v>86921.60302080003</v>
       </c>
     </row>
     <row r="5">
@@ -150,7 +150,7 @@
         <v>#N/A</v>
       </c>
       <c r="C5" t="n">
-        <v>536113.1388497888</v>
+        <v>657804.3049727976</v>
       </c>
     </row>
     <row r="6">
@@ -161,7 +161,7 @@
         <v>6</v>
       </c>
       <c r="C6" t="n">
-        <v>132842.72648362408</v>
+        <v>158705.82012960006</v>
       </c>
     </row>
     <row r="7">
@@ -172,7 +172,7 @@
         <v>7</v>
       </c>
       <c r="C7" t="n">
-        <v>188466.4633391537</v>
+        <v>230822.24114880018</v>
       </c>
     </row>
     <row r="8">
@@ -183,7 +183,7 @@
         <v>8</v>
       </c>
       <c r="C8" t="n">
-        <v>221333.65563514622</v>
+        <v>272825.2078272002</v>
       </c>
     </row>
     <row r="9">
@@ -194,7 +194,7 @@
         <v>9</v>
       </c>
       <c r="C9" t="n">
-        <v>27769.66793988588</v>
+        <v>32494.692268800005</v>
       </c>
     </row>
     <row r="10">
@@ -205,7 +205,7 @@
         <v>10</v>
       </c>
       <c r="C10" t="n">
-        <v>176880.05458499413</v>
+        <v>220747.3237008001</v>
       </c>
     </row>
     <row r="11">
@@ -216,7 +216,7 @@
         <v>11</v>
       </c>
       <c r="C11" t="n">
-        <v>144.44896927485271</v>
+        <v>168.450696</v>
       </c>
     </row>
   </sheetData>

--- a/Output/Tables/Table_3.xlsx
+++ b/Output/Tables/Table_3.xlsx
@@ -117,7 +117,7 @@
         <v>#N/A</v>
       </c>
       <c r="C2" t="n">
-        <v>915763.7357711862</v>
+        <v>679025.8923849599</v>
       </c>
     </row>
     <row r="3">
@@ -128,7 +128,7 @@
         <v>#N/A</v>
       </c>
       <c r="C3" t="n">
-        <v>171037.82777760012</v>
+        <v>126789.67668903836</v>
       </c>
     </row>
     <row r="4">
@@ -139,7 +139,7 @@
         <v>#N/A</v>
       </c>
       <c r="C4" t="n">
-        <v>86921.60302080003</v>
+        <v>64519.75085621432</v>
       </c>
     </row>
     <row r="5">
@@ -150,7 +150,7 @@
         <v>#N/A</v>
       </c>
       <c r="C5" t="n">
-        <v>657804.3049727976</v>
+        <v>487716.46483970823</v>
       </c>
     </row>
     <row r="6">
@@ -161,7 +161,7 @@
         <v>6</v>
       </c>
       <c r="C6" t="n">
-        <v>158705.82012960006</v>
+        <v>121243.75723927609</v>
       </c>
     </row>
     <row r="7">
@@ -172,7 +172,7 @@
         <v>7</v>
       </c>
       <c r="C7" t="n">
-        <v>230822.24114880018</v>
+        <v>171097.71222410485</v>
       </c>
     </row>
     <row r="8">
@@ -183,7 +183,7 @@
         <v>8</v>
       </c>
       <c r="C8" t="n">
-        <v>272825.2078272002</v>
+        <v>200942.87287758396</v>
       </c>
     </row>
     <row r="9">
@@ -194,7 +194,7 @@
         <v>9</v>
       </c>
       <c r="C9" t="n">
-        <v>32494.692268800005</v>
+        <v>25238.457391499036</v>
       </c>
     </row>
     <row r="10">
@@ -205,7 +205,7 @@
         <v>10</v>
       </c>
       <c r="C10" t="n">
-        <v>220747.3237008001</v>
+        <v>160372.4625551049</v>
       </c>
     </row>
     <row r="11">
@@ -216,7 +216,7 @@
         <v>11</v>
       </c>
       <c r="C11" t="n">
-        <v>168.450696</v>
+        <v>130.6300973915227</v>
       </c>
     </row>
   </sheetData>

--- a/Output/Tables/Table_3.xlsx
+++ b/Output/Tables/Table_3.xlsx
@@ -117,7 +117,7 @@
         <v>#N/A</v>
       </c>
       <c r="C2" t="n">
-        <v>679025.8923849599</v>
+        <v>764421.4026200452</v>
       </c>
     </row>
     <row r="3">
@@ -128,7 +128,7 @@
         <v>#N/A</v>
       </c>
       <c r="C3" t="n">
-        <v>126789.67668903836</v>
+        <v>144357.42866656432</v>
       </c>
     </row>
     <row r="4">
@@ -139,7 +139,7 @@
         <v>#N/A</v>
       </c>
       <c r="C4" t="n">
-        <v>64519.75085621432</v>
+        <v>71914.34909716078</v>
       </c>
     </row>
     <row r="5">
@@ -150,7 +150,7 @@
         <v>#N/A</v>
       </c>
       <c r="C5" t="n">
-        <v>487716.46483970823</v>
+        <v>548149.6248563217</v>
       </c>
     </row>
     <row r="6">
@@ -161,7 +161,7 @@
         <v>6</v>
       </c>
       <c r="C6" t="n">
-        <v>121243.75723927609</v>
+        <v>136178.84695007434</v>
       </c>
     </row>
     <row r="7">
@@ -172,7 +172,7 @@
         <v>7</v>
       </c>
       <c r="C7" t="n">
-        <v>171097.71222410485</v>
+        <v>193212.27098616774</v>
       </c>
     </row>
     <row r="8">
@@ -183,7 +183,7 @@
         <v>8</v>
       </c>
       <c r="C8" t="n">
-        <v>200942.87287758396</v>
+        <v>226226.5890670709</v>
       </c>
     </row>
     <row r="9">
@@ -194,7 +194,7 @@
         <v>9</v>
       </c>
       <c r="C9" t="n">
-        <v>25238.457391499036</v>
+        <v>28420.456721386632</v>
       </c>
     </row>
     <row r="10">
@@ -205,7 +205,7 @@
         <v>10</v>
       </c>
       <c r="C10" t="n">
-        <v>160372.4625551049</v>
+        <v>180235.34584287272</v>
       </c>
     </row>
     <row r="11">
@@ -216,7 +216,7 @@
         <v>11</v>
       </c>
       <c r="C11" t="n">
-        <v>130.6300973915227</v>
+        <v>147.89305247433745</v>
       </c>
     </row>
   </sheetData>
